--- a/Datasets/Frommann/Data/Frommann_6_C_Ospanova.xlsx
+++ b/Datasets/Frommann/Data/Frommann_6_C_Ospanova.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dianaospanova/Desktop/Arbeit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/Akademie_Projekt/Datasets/Frommann/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F34174-7BFE-4A4F-AFA3-8A06455F3F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{71F34174-7BFE-4A4F-AFA3-8A06455F3F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86647154-E4EA-42BB-B05F-6982AB4AAA33}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -284,7 +284,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -559,30 +559,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P270"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -632,7 +632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -670,7 +670,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -708,7 +708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -749,7 +749,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -790,7 +790,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -831,7 +831,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -872,7 +872,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -910,7 +910,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -948,7 +948,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -986,30 +986,30 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I46" s="4"/>
     </row>
-    <row r="74" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P74" s="5"/>
     </row>
-    <row r="75" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P75" s="5"/>
     </row>
-    <row r="76" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P76" s="5"/>
     </row>
-    <row r="77" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P77" s="5"/>
     </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
     </row>
-    <row r="270" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="270" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P270" s="1"/>
     </row>
   </sheetData>
@@ -1026,9 +1026,9 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1045,18 +1045,18 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
